--- a/biology/Zoologie/Samuel_Jackson_Holmes/Samuel_Jackson_Holmes.xlsx
+++ b/biology/Zoologie/Samuel_Jackson_Holmes/Samuel_Jackson_Holmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Jackson Holmes est un zoologiste américain, né le 7 mars 1868 à Henry (Illinois) et mort le 5 mars 1964.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Joseph Holmes et d’Avis Folger née Taber. Il obtient son Bachelor of Sciences à l’université de Californie en 1893, son Master of Sciences en 1894 et son Ph. D. à l’université de Chicago en 1897.
 Il se marie avec Cecelia Warfield Skinner en 1909 dont il aura neuf enfants.
